--- a/biology/Histoire de la zoologie et de la botanique/Adam_Maurizio/Adam_Maurizio.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adam_Maurizio/Adam_Maurizio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam Maurizio était un botaniste suisse, spécialiste de technologie alimentaire et d'histoire culturelle, né le 26 septembre 1862 à Cracovie et mort le 4 mars 1941 à Liebefeld près de Berne. Il a acquis une reconnaissance internationale pour ses travaux sur l'histoire de l'alimentation végétale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam Maurizio est issu d'une famille en vue du canton des Grisons. Comme de nombreux Suisses du XIXe siècle, son père a émigré en Pologne vers 1850. Il tenait une confiserie à Cracovie. C'est là qu'Adam Maurizio est né en 1862 en tant que citoyen suisse. Il a fréquenté l'école publique à Cracovie, mais en a ensuite été exclu à la suite de problèmes politiques. À partir de 1883, il réside en Suisse où il fréquente les collèges de Coire et de Winterthour. Il étudie ensuite les sciences naturelles, et particulièrement la botanique, à partir de 1888 dans les universités de Zürich, Genève et Berne. En 1894, il obtient une thèse de l'université de Berne sur les Saprolegnia. En même temps, il obtient son brevet d'enseignement secondaire.
 Une fois ses diplômes obtenus, Maurizio a enseigné les sciences naturelles dans plusieurs écoles. En 1896, il devient assistant de recherche en physiologie végétale et pathologie à la station de recherche de Wädenswil. Il s'y consacre surtout à la recherche sur les matières premières végétales, la meunerie et les fourrages. Pour ces travaux, il a bénéficié du soutien constant du botaniste berlinois Ludwig Wittmack, dont il a été un temps l'assistant.
@@ -546,7 +560,9 @@
           <t>Domaines de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Peu de temps après ses études, Maurizio a changé d'orientation, passant de la botanique scientifique à la botanique appliquée. À partir de 1900, il a centré son activité de recherche sur la technologie et la physiologie des céréales et de leurs produits. Particulièrement utiles à la boulangerie ont été les résultats de ses expériences, où il s'est efforcé de quantifier l'estimation restée jusqu'alors empirique de la panifiabilité des farines de blé. La première récapitulation de ces études est  parue en 1903 sous le titre "Getreide, Mehl und Brot" chez Paul Parey à Berlin. En 1909 a suivi "Die Müllerei und Bäckerei " et en 1917/199 son livre en deux volumes "Die Nahrungsmittel aus Getreide" (2e édition 1924/1926).
 Son travail intensif sur les aspects technologiques de la transformation des céréales a conduit Maurizio à accorder de plus en plus d'attention à l'évolution historique des aliments. Dans son livre "Die Getreide-Nahrung im Wandel der Zeiten" paru en 1916, il décrit ce qui était jusqu'alors un domaine professionnel sous l'angle de l'histoire culturelle et de l'ethnographie. Fruit de nombreuses recherches historiques et données de terrain, est parue en 1927 son œuvre la plus importante, "Die Geschichte unserer Pflanzennahrung von den Urzeiten bis zur Gegenwart". Ce livre est le seul à avoir été traduit en français en 1932, sous le titre Histoire de l'alimentation végétale depuis la préhistoire jusqu'à nos jours. Il n'a jamais été traduit en anglais. Ce premier panorama d'ensemble scientifiquement fondé sur l'histoire mondiale de l'alimentation a procuré une réputation internationale à Maurizio en tant qu'historien des techniques. Avec sa thèse centrale que chaque étape de l'agriculture produit une forme particulière d'alimentation et son point de vue interdisciplinaire, il a ouvert de nouvelles pistes de recherche pour l'ethnographie, l'histoire et la géographie de l'agriculture. Une des meilleures recensions de ce livre et de sa signification pour la géographie de l'agriculture a été publiée par l'historien Richard Krzymowski en 1929 dans les "Landwirtschaftlichen Jahrbüchern".
@@ -579,10 +595,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1894. Zur Entwickelungsgeschichte und Systematik der Saprolegnieen. Diss. phil. Univ. Bern. [Le développement et la systématique des Saprolegnia].
-1902. Die Backfähigkeit des Weizens und ihre Bestimmung. In: Landwirtschaftliche Jahrbücher, tome 31,, pp. 179-234, 3 tableaux. Tiré à part. [La panifiabilité du blé et son évaluation].
+1902. Die Backfähigkeit des Weizens und ihre Bestimmung. In: Landwirtschaftliche Jahrbücher, tome 31 pp. 179-234, 3 tableaux. Tiré à part. [La panifiabilité du blé et son évaluation].
 1903. Getreide, Mehl und Brot. Ihre botanischen, chemischen und physikalischen Eigenschaften, hygienisches Verhalten, sowie ihre Beurteilung und Prüfung. Handbuch zum Gebrauche in Laboratorien und zum Selbstunterricht für Chemiker, Müller, Bäcker, Botaniker und Landwirte. Berlin, Paul Parey. [Les céréales, la farine et le pain. Leurs caractéristiques botaniques, chimiques et physiques, leut teneur nutritionnelle, ainsi que leur estimation et analyse. Manuel pour les laboratoires et les études personnelles des chimistes, des meuniers, des boulangers, des botaniques et des agriculteurs].
 1908. Kraftfuttermittel. Verlag Jänecke Hannover  = Bibliothek der gesamten Landwirtschaft vol. 51. [Fourrages riches en énergie]. en ligne à l'université de Dusseldorf.
 1909. Die Müllerei und Bäckerei. Hannover, Jänecke. Bibliothek der gesamten Landwirtschaft vol. 41. [La meunerie et la boulangerie].
